--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>服务上线checklist</t>
   </si>
@@ -48,6 +48,12 @@
     <t>gitee/github仓库地址</t>
   </si>
   <si>
+    <t>CPU架构</t>
+  </si>
+  <si>
+    <t>arm/x86</t>
+  </si>
+  <si>
     <t>端口</t>
   </si>
   <si>
@@ -58,6 +64,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>安全需要，如服务涉及数据库参数适配、第三方工具token，建议使用环境变量或配置文件挂载方式导入，环境变量请单独提供</t>
     </r>
     <r>
@@ -129,6 +141,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">安全需要，服务对外暴露通过域名，不适用ip+port的形式，前端服务请确认使用的域名,
 测试环境: </t>
     </r>
@@ -255,6 +273,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>服务上线前需确认容器能否正常启动，端口访问是否正常（请提供</t>
     </r>
     <r>
@@ -293,6 +317,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">社区+区域，测试环境（香港）、生产环境（香港、北京），例如 </t>
     </r>
     <r>
@@ -310,6 +340,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>如服务路径下的资源需要持久存储，请说明绝对路径，以及所需存储空间大小，例如</t>
     </r>
     <r>
@@ -326,7 +362,55 @@
     <t>数据库</t>
   </si>
   <si>
-    <t>数据库(MySQL、Redis、PostgreSQL等)，如需使用数据库，请提供业务所需数据库最小支持版本，相关配置需求，如 MySQL 8.0 字符集UTF8,Redis 5.0 512M</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">数据库(MySQL、Redis、PostgreSQL等)，请提供数据库基本配置，如：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 8.0 字符集UTF8,Redis 5.0 512M
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PostgreSQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 13,字符集 UTF8,Collation ,Ctype</t>
+    </r>
   </si>
   <si>
     <t>通信</t>
@@ -335,6 +419,13 @@
     <t>前端服务如有对应的后端服务，请说明后端地址的适配方案</t>
   </si>
   <si>
+    <t>安全自检</t>
+  </si>
+  <si>
+    <t>1.服务是否存在后台？如存在后台请提供防暴力破解方案
+2.服务是否有高危端口暴露</t>
+  </si>
+  <si>
     <t>串讲纪要</t>
   </si>
   <si>
@@ -373,7 +464,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>曹志 00567459</t>
+      <t>曹志</t>
     </r>
     <r>
       <rPr>
@@ -401,7 +492,17 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘洋 (747802914@qq.com)</t>
     </r>
   </si>
 </sst>
@@ -410,12 +511,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,93 +545,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,6 +560,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -558,38 +651,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,181 +710,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,26 +952,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,15 +970,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,6 +1013,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -953,157 +1036,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1113,17 +1207,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1488,192 +1573,210 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="43.375" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" ht="18" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="66" spans="1:3">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="16.5" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="99" spans="1:3">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="66" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="45" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="99" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="45" customHeight="1" spans="1:3">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="22" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="33" customHeight="1" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="34" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="22" customHeight="1" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="35" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="34" customHeight="1" spans="1:3">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="66" spans="1:3">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="35" customHeight="1" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:3">
-      <c r="A15" s="5" t="s">
+    <row r="15" ht="72" customHeight="1" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:3">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="33" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:3">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="49.5" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="25" customHeight="1" spans="1:3">
-      <c r="A20" s="9" t="s">
+    <row r="19" ht="16.5" spans="1:3">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="25" customHeight="1" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -445,6 +445,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>说明</t>
     </r>
     <r>
@@ -511,10 +518,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -546,7 +553,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,73 +642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -659,31 +674,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,115 +711,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,67 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,15 +957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -989,11 +987,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,21 +1030,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1055,10 +1062,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,133 +1074,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1575,8 +1582,8 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1658,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="99" spans="1:3">
+    <row r="9" ht="82.5" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>

--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>服务上线checklist</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t>gitee/github仓库地址</t>
+  </si>
+  <si>
+    <t>容器基础镜像</t>
+  </si>
+  <si>
+    <r>
+      <t>请使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>openEuler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为基础镜像，下载地址：https://hub.docker.com/r/openeuler/openeuler/tags</t>
+    </r>
   </si>
   <si>
     <t>CPU架构</t>
@@ -518,9 +545,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -566,46 +593,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,23 +693,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,187 +738,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,6 +984,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -972,6 +1008,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -983,21 +1030,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,22 +1067,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,149 +1089,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,6 +1246,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1580,17 +1610,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
@@ -1638,12 +1668,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:3">
+    <row r="6" ht="33" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1656,102 +1686,102 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="66" spans="1:3">
+    <row r="8" ht="16.5" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="82.5" spans="1:3">
+    <row r="9" ht="66" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:3">
+    <row r="10" ht="82.5" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="33" customHeight="1" spans="1:3">
+    <row r="11" ht="45" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="22" customHeight="1" spans="1:3">
+    <row r="12" ht="33" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="34" customHeight="1" spans="1:3">
+    <row r="13" ht="22" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="35" customHeight="1" spans="1:3">
+    <row r="14" ht="34" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="72" customHeight="1" spans="1:3">
+    <row r="15" ht="35" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:3">
+    <row r="16" ht="72" customHeight="1" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="49.5" spans="1:3">
+    <row r="17" ht="33" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:3">
+    <row r="18" ht="49.5" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1769,21 +1799,30 @@
         <v>38</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="25" customHeight="1" spans="1:3">
-      <c r="A22" s="6" t="s">
+    <row r="21" ht="16.5" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" ht="25" customHeight="1" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="服务上线checklist" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>服务上线checklist</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>请使用</t>
     </r>
     <r>
@@ -451,6 +457,12 @@
   <si>
     <t>1.服务是否存在后台？如存在后台请提供防暴力破解方案
 2.服务是否有高危端口暴露</t>
+  </si>
+  <si>
+    <t>容器接入权限</t>
+  </si>
+  <si>
+    <t>服务上线后，为便于开发运维人员定位问题，提供容器日志查看、容器exec权限供申请</t>
   </si>
   <si>
     <t>串讲纪要</t>
@@ -546,9 +558,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -580,45 +592,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,10 +675,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,14 +715,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,31 +750,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,151 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,15 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1010,10 +1013,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1036,8 +1037,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1081,6 +1084,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1089,10 +1101,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,137 +1113,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,9 +1258,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1610,10 +1619,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1700,7 +1709,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1709,7 +1718,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1718,7 +1727,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1727,7 +1736,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1745,7 +1754,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1754,7 +1763,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1763,34 +1772,34 @@
         <v>30</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:3">
+    <row r="17" ht="16.5" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="49.5" spans="1:3">
+    <row r="18" ht="33" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:3">
+    <row r="19" ht="33" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1808,21 +1817,30 @@
         <v>40</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="1:3">
-      <c r="A23" s="7" t="s">
+    <row r="22" ht="16.5" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" ht="25" customHeight="1" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -51,34 +51,8 @@
     <t>容器基础镜像</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请使用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>openEuler</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作为基础镜像，下载地址：https://hub.docker.com/r/openeuler/openeuler/tags</t>
-    </r>
+    <t>是否以openEuler作为基础镜像，如未使用请说明修改计划
+（openEuler社区已提供的基础镜像：https://hub.docker.com/u/openeuler）</t>
   </si>
   <si>
     <t>CPU架构</t>
@@ -174,13 +148,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">安全需要，服务对外暴露通过域名，不适用ip+port的形式，前端服务请确认使用的域名,
+      <t>安全需要，服务对外暴露通过域名，不使用ip+port的形式，前端服务请确认使用的域名（使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.cn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">域名的服务支持部署北京集群，其余域名只能部署香港）
 测试环境: </t>
     </r>
     <r>
@@ -199,7 +185,8 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">，生产环境: </t>
+      <t xml:space="preserve">，
+生产环境: </t>
     </r>
     <r>
       <rPr>
@@ -208,7 +195,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>*.osinfra.cn</t>
+      <t>*.osinfra.cn*.openeuler.org</t>
     </r>
     <r>
       <rPr>
@@ -226,7 +213,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>*.openeuler.org</t>
+      <t>*.openeuler.sh</t>
     </r>
     <r>
       <rPr>
@@ -244,7 +231,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>*.openeuler.sh</t>
+      <t>*.mindspore.cn</t>
     </r>
     <r>
       <rPr>
@@ -262,7 +249,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>*.mindspore.cn</t>
+      <t>*.opengauss.org</t>
     </r>
     <r>
       <rPr>
@@ -280,16 +267,21 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>*.opengauss.org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
+      <t>*.openlookeng.io</t>
+    </r>
+  </si>
+  <si>
+    <t>容器状态</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务上线前需确认容器能否正常启动，端口访问是否正常（请提供</t>
     </r>
     <r>
       <rPr>
@@ -298,21 +290,37 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>*.openlookeng.io</t>
-    </r>
-  </si>
-  <si>
-    <t>容器状态</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务上线前需确认容器能否正常启动，端口访问是否正常（请提供</t>
+      <t>自验证报告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>健康检测</t>
+  </si>
+  <si>
+    <t>提供快速检测容器内服务状态的方法，排除业务本身的干扰，便于快速定位问题</t>
+  </si>
+  <si>
+    <t>容器基础资源</t>
+  </si>
+  <si>
+    <t>容器运行所需的CPU、内存</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">社区+区域，测试环境（香港）、生产环境（香港、北京）
+格式： </t>
     </r>
     <r>
       <rPr>
@@ -321,50 +329,6 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>自验证报告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>健康检测</t>
-  </si>
-  <si>
-    <t>提供快速检测容器内服务状态的方法，排除业务本身的干扰，便于快速定位问题</t>
-  </si>
-  <si>
-    <t>容器基础资源</t>
-  </si>
-  <si>
-    <t>容器运行所需的CPU、内存</t>
-  </si>
-  <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">社区+区域，测试环境（香港）、生产环境（香港、北京），例如 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>mindspore 北京 生产环境</t>
     </r>
   </si>
@@ -373,13 +337,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如服务路径下的资源需要持久存储，请说明绝对路径，以及所需存储空间大小，例如</t>
+      <t>如服务路径下的资源需要持久存储，请说明绝对路径，以及所需存储空间大小，
+例如</t>
     </r>
     <r>
       <rPr>
@@ -449,7 +408,8 @@
     <t>通信</t>
   </si>
   <si>
-    <t>前端服务如有对应的后端服务，请说明后端地址的适配方案</t>
+    <t>是否存在关联服务？
+如存在，请备注关联服务地域、ip或域名</t>
   </si>
   <si>
     <t>安全自检</t>
@@ -462,7 +422,10 @@
     <t>容器接入权限</t>
   </si>
   <si>
-    <t>服务上线后，为便于开发运维人员定位问题，提供容器日志查看、容器exec权限供申请</t>
+    <t>服务上线后，为便于开发运维人员定位问题，基础设施提供以下权限：
+1.日志查看
+2.容器exec
+3.本地主机端口映射集群容器端口（服务调试）</t>
   </si>
   <si>
     <t>串讲纪要</t>
@@ -480,7 +443,7 @@
     <t>责任人</t>
   </si>
   <si>
-    <t>-</t>
+    <t>请备注服务联系人，便于异常发生后及时联系相关人员处理</t>
   </si>
   <si>
     <r>
@@ -557,9 +520,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -592,6 +555,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -599,23 +569,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,61 +644,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -715,7 +677,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,8 +690,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,37 +713,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,145 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,15 +974,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1037,10 +991,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1093,6 +1045,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1101,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1113,137 +1076,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1261,6 +1224,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1622,14 +1588,14 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="3" max="3" width="69.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
@@ -1704,7 +1670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="66" spans="1:3">
+    <row r="9" ht="49.5" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:3">
+    <row r="17" ht="33" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1794,7 +1760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="33" spans="1:3">
+    <row r="19" ht="66" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1826,16 +1792,16 @@
         <v>42</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -148,6 +148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>安全需要，服务对外暴露通过域名，不使用ip+port的形式，前端服务请确认使用的域名（使用</t>
     </r>
     <r>
@@ -319,6 +325,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">社区+区域，测试环境（香港）、生产环境（香港、北京）
 格式： </t>
     </r>
@@ -337,6 +349,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>如服务路径下的资源需要持久存储，请说明绝对路径，以及所需存储空间大小，
 例如</t>
     </r>
@@ -419,7 +437,7 @@
 2.服务是否有高危端口暴露</t>
   </si>
   <si>
-    <t>容器接入权限</t>
+    <t>调试权限申请</t>
   </si>
   <si>
     <t>服务上线后，为便于开发运维人员定位问题，基础设施提供以下权限：
@@ -520,10 +538,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -555,61 +573,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,6 +654,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -668,6 +694,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -677,22 +710,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,37 +731,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +839,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,133 +887,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,6 +977,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -970,6 +999,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,15 +1032,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,17 +1074,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1064,10 +1082,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,19 +1094,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,112 +1115,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1587,8 +1605,8 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="服务上线checklist" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>服务上线checklist</t>
   </si>
@@ -444,6 +444,12 @@
 1.日志查看
 2.容器exec
 3.本地主机端口映射集群容器端口（服务调试）</t>
+  </si>
+  <si>
+    <t>API监控</t>
+  </si>
+  <si>
+    <t>是否存在需要监控的api，如存在请填写完整的url和参数</t>
   </si>
   <si>
     <t>串讲纪要</t>
@@ -538,8 +544,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -573,15 +579,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,52 +654,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,19 +676,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -678,39 +692,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,25 +737,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +881,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,139 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,10 +985,41 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1003,15 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1023,30 +1051,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,9 +1072,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,10 +1088,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,133 +1100,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1603,10 +1609,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1792,7 +1798,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1810,21 +1816,30 @@
         <v>42</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" ht="25" customHeight="1" spans="1:3">
-      <c r="A24" s="7" t="s">
+    <row r="23" ht="16.5" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" ht="25" customHeight="1" spans="1:3">
+      <c r="A25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="服务上线checklist" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,9 @@
   </si>
   <si>
     <t>1.服务是否存在后台？如存在后台请提供防暴力破解方案
-2.服务是否有高危端口暴露</t>
+2.服务是否有高危端口暴露
+3.服务是否存在terminal界面
+4.服务包含容器间相互访问关系，用于上线后进行网络隔离</t>
   </si>
   <si>
     <t>调试权限申请</t>
@@ -545,8 +547,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -579,52 +581,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,52 +663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -692,9 +671,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,31 +739,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,145 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,48 +985,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1055,6 +1015,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1072,6 +1065,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1088,10 +1090,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1100,133 +1102,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1611,8 +1613,8 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1775,7 +1777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="33" spans="1:3">
+    <row r="18" ht="66" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>

--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -7,16 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="服务上线checklist" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="服务上线checklist-v1.0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>服务上线checklist</t>
   </si>
@@ -148,12 +146,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>安全需要，服务对外暴露通过域名，不使用ip+port的形式，前端服务请确认使用的域名（使用</t>
     </r>
     <r>
@@ -325,13 +317,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">社区+区域，测试环境（香港）、生产环境（香港、北京）
+      <t xml:space="preserve">社区+区域，测试环境（香港、上海）、生产环境（香港、北京）
 格式： </t>
     </r>
     <r>
@@ -426,8 +412,7 @@
     <t>通信</t>
   </si>
   <si>
-    <t>是否存在关联服务？
-如存在，请备注关联服务地域、ip或域名</t>
+    <t>如服务存在多个容器，请提供容器间相互访问方向图，用于上线后网络隔离</t>
   </si>
   <si>
     <t>安全自检</t>
@@ -436,7 +421,11 @@
     <t>1.服务是否存在后台？如存在后台请提供防暴力破解方案
 2.服务是否有高危端口暴露
 3.服务是否存在terminal界面
-4.服务包含容器间相互访问关系，用于上线后进行网络隔离</t>
+4.服务是否以非root用户启动
+5.secret是否明文保存在容器环境
+6.服务是否存在用户输入界面或入口
+7.服务是否接入防XSS攻击措施
+8.服务是否接入防SQL注入措施（如有使用数据库）</t>
   </si>
   <si>
     <t>调试权限申请</t>
@@ -470,75 +459,6 @@
   </si>
   <si>
     <t>请备注服务联系人，便于异常发生后及时联系相关人员处理</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>说明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：填写完成后，请邮件主送 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>曹志</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>george.cao@huawei.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>),</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘洋 (747802914@qq.com)</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -573,162 +493,162 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -924,7 +844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -936,43 +856,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1090,10 +973,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,33 +985,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,101 +1024,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1253,15 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1613,8 +1487,8 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1768,7 +1642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:3">
+    <row r="17" ht="16.5" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1777,7 +1651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="66" spans="1:3">
+    <row r="18" ht="132" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1831,54 +1705,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="25" customHeight="1" spans="1:3">
-      <c r="A25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-    </row>
+    <row r="25" ht="16" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>